--- a/Base/Teams/Jaguars/Players Stats.xlsx
+++ b/Base/Teams/Jaguars/Players Stats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/Simulation app/Jaguars/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Jaguars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{978E37CC-64BB-473F-9BCC-5FB74E21E285}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1193726-0378-4D53-B11A-FFD6F9D5E3CF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>L.Treadwell</t>
+  </si>
+  <si>
+    <t>J.Mickens</t>
   </si>
 </sst>
 </file>
@@ -773,10 +776,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12D00DA-02B2-4502-AFFA-15E1047659D6}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1069,6 +1072,38 @@
         <v>0</v>
       </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Jaguars/Players Stats.xlsx
+++ b/Base/Teams/Jaguars/Players Stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Jaguars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1193726-0378-4D53-B11A-FFD6F9D5E3CF}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1E7D9BD-A6B7-4F22-801C-F8B40E68ABE7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QB" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>J.Mickens</t>
+  </si>
+  <si>
+    <t>N.Cottrell</t>
   </si>
 </sst>
 </file>
@@ -601,10 +604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459779FE-3466-48C5-B589-C050AA2DD35E}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,6 +769,38 @@
         <v>0</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>0</v>
       </c>
     </row>
@@ -778,7 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12D00DA-02B2-4502-AFFA-15E1047659D6}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>

--- a/Base/Teams/Jaguars/Players Stats.xlsx
+++ b/Base/Teams/Jaguars/Players Stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Jaguars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1E7D9BD-A6B7-4F22-801C-F8B40E68ABE7}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2518CB6-301B-4076-B2B1-7C81D86DDA60}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>N.Cottrell</t>
+  </si>
+  <si>
+    <t>R.Armstead</t>
   </si>
 </sst>
 </file>
@@ -604,10 +607,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459779FE-3466-48C5-B589-C050AA2DD35E}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,6 +804,38 @@
         <v>0</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Jaguars/Players Stats.xlsx
+++ b/Base/Teams/Jaguars/Players Stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Jaguars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2518CB6-301B-4076-B2B1-7C81D86DDA60}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCF739B7-8B16-466E-A636-C95B3E918DCE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>R.Armstead</t>
+  </si>
+  <si>
+    <t>M.Sargent</t>
   </si>
 </sst>
 </file>
@@ -607,10 +610,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459779FE-3466-48C5-B589-C050AA2DD35E}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -836,6 +839,38 @@
         <v>0</v>
       </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>0</v>
       </c>
     </row>
